--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tnf-Tnfrsf1a.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.41566844942842</v>
+        <v>5.349936666666667</v>
       </c>
       <c r="H2">
-        <v>4.41566844942842</v>
+        <v>16.04981</v>
       </c>
       <c r="I2">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="J2">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.7283142891337</v>
+        <v>33.67810466666666</v>
       </c>
       <c r="N2">
-        <v>29.7283142891337</v>
+        <v>101.034314</v>
       </c>
       <c r="O2">
-        <v>0.1572094700100047</v>
+        <v>0.1611708087274131</v>
       </c>
       <c r="P2">
-        <v>0.1572094700100047</v>
+        <v>0.1681783058563055</v>
       </c>
       <c r="Q2">
-        <v>131.2703794612197</v>
+        <v>180.1757270200378</v>
       </c>
       <c r="R2">
-        <v>131.2703794612197</v>
+        <v>1621.58154318034</v>
       </c>
       <c r="S2">
-        <v>0.005917482642682616</v>
+        <v>0.006685760618175698</v>
       </c>
       <c r="T2">
-        <v>0.005917482642682616</v>
+        <v>0.006976448793697392</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.41566844942842</v>
+        <v>5.349936666666667</v>
       </c>
       <c r="H3">
-        <v>4.41566844942842</v>
+        <v>16.04981</v>
       </c>
       <c r="I3">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="J3">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>47.5411469249623</v>
+        <v>51.86084433333334</v>
       </c>
       <c r="N3">
-        <v>47.5411469249623</v>
+        <v>155.582533</v>
       </c>
       <c r="O3">
-        <v>0.2514074104253182</v>
+        <v>0.2481865979460151</v>
       </c>
       <c r="P3">
-        <v>0.2514074104253182</v>
+        <v>0.2589774284088547</v>
       </c>
       <c r="Q3">
-        <v>209.925942526197</v>
+        <v>277.4522326631923</v>
       </c>
       <c r="R3">
-        <v>209.925942526197</v>
+        <v>2497.07009396873</v>
       </c>
       <c r="S3">
-        <v>0.009463163938781353</v>
+        <v>0.01029538906957315</v>
       </c>
       <c r="T3">
-        <v>0.009463163938781353</v>
+        <v>0.01074301919512449</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.41566844942842</v>
+        <v>5.349936666666667</v>
       </c>
       <c r="H4">
-        <v>4.41566844942842</v>
+        <v>16.04981</v>
       </c>
       <c r="I4">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="J4">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.3463579411169</v>
+        <v>42.437046</v>
       </c>
       <c r="N4">
-        <v>34.3463579411169</v>
+        <v>127.311138</v>
       </c>
       <c r="O4">
-        <v>0.1816306392680515</v>
+        <v>0.2030878249093402</v>
       </c>
       <c r="P4">
-        <v>0.1816306392680515</v>
+        <v>0.2119178193804366</v>
       </c>
       <c r="Q4">
-        <v>151.6621291133652</v>
+        <v>227.03550842042</v>
       </c>
       <c r="R4">
-        <v>151.6621291133652</v>
+        <v>2043.31957578378</v>
       </c>
       <c r="S4">
-        <v>0.006836713813612138</v>
+        <v>0.008424581303096012</v>
       </c>
       <c r="T4">
-        <v>0.006836713813612138</v>
+        <v>0.008790871140317163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.41566844942842</v>
+        <v>5.349936666666667</v>
       </c>
       <c r="H5">
-        <v>4.41566844942842</v>
+        <v>16.04981</v>
       </c>
       <c r="I5">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="J5">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.7130279649999</v>
+        <v>54.86295166666667</v>
       </c>
       <c r="N5">
-        <v>52.7130279649999</v>
+        <v>164.588855</v>
       </c>
       <c r="O5">
-        <v>0.278757386254802</v>
+        <v>0.2625535604455031</v>
       </c>
       <c r="P5">
-        <v>0.278757386254802</v>
+        <v>0.2739690477507386</v>
       </c>
       <c r="Q5">
-        <v>232.7632544588881</v>
+        <v>293.5133167630611</v>
       </c>
       <c r="R5">
-        <v>232.7632544588881</v>
+        <v>2641.61985086755</v>
       </c>
       <c r="S5">
-        <v>0.01049263759096312</v>
+        <v>0.01089136592692291</v>
       </c>
       <c r="T5">
-        <v>0.01049263759096312</v>
+        <v>0.01136490835104581</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.41566844942842</v>
+        <v>5.349936666666667</v>
       </c>
       <c r="H6">
-        <v>4.41566844942842</v>
+        <v>16.04981</v>
       </c>
       <c r="I6">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="J6">
-        <v>0.03764075180907379</v>
+        <v>0.04148245374559899</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.7711752082246</v>
+        <v>26.120138</v>
       </c>
       <c r="N6">
-        <v>24.7711752082246</v>
+        <v>52.24027600000001</v>
       </c>
       <c r="O6">
-        <v>0.1309950940418236</v>
+        <v>0.1250012079717284</v>
       </c>
       <c r="P6">
-        <v>0.1309950940418236</v>
+        <v>0.08695739860366467</v>
       </c>
       <c r="Q6">
-        <v>109.3812968222208</v>
+        <v>139.7410840245934</v>
       </c>
       <c r="R6">
-        <v>109.3812968222208</v>
+        <v>838.4465041475602</v>
       </c>
       <c r="S6">
-        <v>0.004930753823034563</v>
+        <v>0.005185356827831223</v>
       </c>
       <c r="T6">
-        <v>0.004930753823034563</v>
+        <v>0.003607206265414133</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.16234319750665</v>
+        <v>1.36117</v>
       </c>
       <c r="H7">
-        <v>1.16234319750665</v>
+        <v>4.08351</v>
       </c>
       <c r="I7">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="J7">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.7283142891337</v>
+        <v>33.67810466666666</v>
       </c>
       <c r="N7">
-        <v>29.7283142891337</v>
+        <v>101.034314</v>
       </c>
       <c r="O7">
-        <v>0.1572094700100047</v>
+        <v>0.1611708087274131</v>
       </c>
       <c r="P7">
-        <v>0.1572094700100047</v>
+        <v>0.1681783058563055</v>
       </c>
       <c r="Q7">
-        <v>34.5545038873143</v>
+        <v>45.84162572912667</v>
       </c>
       <c r="R7">
-        <v>34.5545038873143</v>
+        <v>412.57463156214</v>
       </c>
       <c r="S7">
-        <v>0.001557668057477491</v>
+        <v>0.001701040095921799</v>
       </c>
       <c r="T7">
-        <v>0.001557668057477491</v>
+        <v>0.001774999106752743</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.16234319750665</v>
+        <v>1.36117</v>
       </c>
       <c r="H8">
-        <v>1.16234319750665</v>
+        <v>4.08351</v>
       </c>
       <c r="I8">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="J8">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.5411469249623</v>
+        <v>51.86084433333334</v>
       </c>
       <c r="N8">
-        <v>47.5411469249623</v>
+        <v>155.582533</v>
       </c>
       <c r="O8">
-        <v>0.2514074104253182</v>
+        <v>0.2481865979460151</v>
       </c>
       <c r="P8">
-        <v>0.2514074104253182</v>
+        <v>0.2589774284088547</v>
       </c>
       <c r="Q8">
-        <v>55.25912872989412</v>
+        <v>70.59142548120336</v>
       </c>
       <c r="R8">
-        <v>55.25912872989412</v>
+        <v>635.3228293308301</v>
       </c>
       <c r="S8">
-        <v>0.002491003198520611</v>
+        <v>0.002619428156438777</v>
       </c>
       <c r="T8">
-        <v>0.002491003198520611</v>
+        <v>0.002733317485595331</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.16234319750665</v>
+        <v>1.36117</v>
       </c>
       <c r="H9">
-        <v>1.16234319750665</v>
+        <v>4.08351</v>
       </c>
       <c r="I9">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="J9">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.3463579411169</v>
+        <v>42.437046</v>
       </c>
       <c r="N9">
-        <v>34.3463579411169</v>
+        <v>127.311138</v>
       </c>
       <c r="O9">
-        <v>0.1816306392680515</v>
+        <v>0.2030878249093402</v>
       </c>
       <c r="P9">
-        <v>0.1816306392680515</v>
+        <v>0.2119178193804366</v>
       </c>
       <c r="Q9">
-        <v>39.92225551198574</v>
+        <v>57.76403390382001</v>
       </c>
       <c r="R9">
-        <v>39.92225551198574</v>
+        <v>519.87630513438</v>
       </c>
       <c r="S9">
-        <v>0.001799638692434088</v>
+        <v>0.002143443567058152</v>
       </c>
       <c r="T9">
-        <v>0.001799638692434088</v>
+        <v>0.002236637705380721</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.16234319750665</v>
+        <v>1.36117</v>
       </c>
       <c r="H10">
-        <v>1.16234319750665</v>
+        <v>4.08351</v>
       </c>
       <c r="I10">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="J10">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>52.7130279649999</v>
+        <v>54.86295166666667</v>
       </c>
       <c r="N10">
-        <v>52.7130279649999</v>
+        <v>164.588855</v>
       </c>
       <c r="O10">
-        <v>0.278757386254802</v>
+        <v>0.2625535604455031</v>
       </c>
       <c r="P10">
-        <v>0.278757386254802</v>
+        <v>0.2739690477507386</v>
       </c>
       <c r="Q10">
-        <v>61.27062947509545</v>
+        <v>74.67780392011667</v>
       </c>
       <c r="R10">
-        <v>61.27062947509545</v>
+        <v>672.10023528105</v>
       </c>
       <c r="S10">
-        <v>0.002761993131376801</v>
+        <v>0.002771060945659107</v>
       </c>
       <c r="T10">
-        <v>0.002761993131376801</v>
+        <v>0.00289154307126247</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.16234319750665</v>
+        <v>1.36117</v>
       </c>
       <c r="H11">
-        <v>1.16234319750665</v>
+        <v>4.08351</v>
       </c>
       <c r="I11">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="J11">
-        <v>0.009908232992442265</v>
+        <v>0.01055426915924182</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.7711752082246</v>
+        <v>26.120138</v>
       </c>
       <c r="N11">
-        <v>24.7711752082246</v>
+        <v>52.24027600000001</v>
       </c>
       <c r="O11">
-        <v>0.1309950940418236</v>
+        <v>0.1250012079717284</v>
       </c>
       <c r="P11">
-        <v>0.1309950940418236</v>
+        <v>0.08695739860366467</v>
       </c>
       <c r="Q11">
-        <v>28.79260699752524</v>
+        <v>35.55394824146001</v>
       </c>
       <c r="R11">
-        <v>28.79260699752524</v>
+        <v>213.3236894487601</v>
       </c>
       <c r="S11">
-        <v>0.001297929912633274</v>
+        <v>0.001319296394163986</v>
       </c>
       <c r="T11">
-        <v>0.001297929912633274</v>
+        <v>0.0009177717902505556</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.0814976665631</v>
+        <v>44.98903266666667</v>
       </c>
       <c r="H12">
-        <v>39.0814976665631</v>
+        <v>134.967098</v>
       </c>
       <c r="I12">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="J12">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>29.7283142891337</v>
+        <v>33.67810466666666</v>
       </c>
       <c r="N12">
-        <v>29.7283142891337</v>
+        <v>101.034314</v>
       </c>
       <c r="O12">
-        <v>0.1572094700100047</v>
+        <v>0.1611708087274131</v>
       </c>
       <c r="P12">
-        <v>0.1572094700100047</v>
+        <v>0.1681783058563055</v>
       </c>
       <c r="Q12">
-        <v>1161.827045521633</v>
+        <v>1515.145351000086</v>
       </c>
       <c r="R12">
-        <v>1161.827045521633</v>
+        <v>13636.30815900077</v>
       </c>
       <c r="S12">
-        <v>0.0523735164314395</v>
+        <v>0.05622232964489051</v>
       </c>
       <c r="T12">
-        <v>0.0523735164314395</v>
+        <v>0.0586668034095692</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.0814976665631</v>
+        <v>44.98903266666667</v>
       </c>
       <c r="H13">
-        <v>39.0814976665631</v>
+        <v>134.967098</v>
       </c>
       <c r="I13">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="J13">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>47.5411469249623</v>
+        <v>51.86084433333334</v>
       </c>
       <c r="N13">
-        <v>47.5411469249623</v>
+        <v>155.582533</v>
       </c>
       <c r="O13">
-        <v>0.2514074104253182</v>
+        <v>0.2481865979460151</v>
       </c>
       <c r="P13">
-        <v>0.2514074104253182</v>
+        <v>0.2589774284088547</v>
       </c>
       <c r="Q13">
-        <v>1857.979222613648</v>
+        <v>2333.169219833249</v>
       </c>
       <c r="R13">
-        <v>1857.979222613648</v>
+        <v>20998.52297849924</v>
       </c>
       <c r="S13">
-        <v>0.08375506984444457</v>
+        <v>0.08657665015979679</v>
       </c>
       <c r="T13">
-        <v>0.08375506984444457</v>
+        <v>0.09034089029865451</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.0814976665631</v>
+        <v>44.98903266666667</v>
       </c>
       <c r="H14">
-        <v>39.0814976665631</v>
+        <v>134.967098</v>
       </c>
       <c r="I14">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="J14">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.3463579411169</v>
+        <v>42.437046</v>
       </c>
       <c r="N14">
-        <v>34.3463579411169</v>
+        <v>127.311138</v>
       </c>
       <c r="O14">
-        <v>0.1816306392680515</v>
+        <v>0.2030878249093402</v>
       </c>
       <c r="P14">
-        <v>0.1816306392680515</v>
+        <v>0.2119178193804366</v>
       </c>
       <c r="Q14">
-        <v>1342.307107730701</v>
+        <v>1909.201648770836</v>
       </c>
       <c r="R14">
-        <v>1342.307107730701</v>
+        <v>17182.81483893753</v>
       </c>
       <c r="S14">
-        <v>0.06050930182229339</v>
+        <v>0.07084453276044561</v>
       </c>
       <c r="T14">
-        <v>0.06050930182229339</v>
+        <v>0.07392476089751582</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.0814976665631</v>
+        <v>44.98903266666667</v>
       </c>
       <c r="H15">
-        <v>39.0814976665631</v>
+        <v>134.967098</v>
       </c>
       <c r="I15">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="J15">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>52.7130279649999</v>
+        <v>54.86295166666667</v>
       </c>
       <c r="N15">
-        <v>52.7130279649999</v>
+        <v>164.588855</v>
       </c>
       <c r="O15">
-        <v>0.278757386254802</v>
+        <v>0.2625535604455031</v>
       </c>
       <c r="P15">
-        <v>0.278757386254802</v>
+        <v>0.2739690477507386</v>
       </c>
       <c r="Q15">
-        <v>2060.104079411619</v>
+        <v>2468.231124721422</v>
       </c>
       <c r="R15">
-        <v>2060.104079411619</v>
+        <v>22214.08012249279</v>
       </c>
       <c r="S15">
-        <v>0.09286657189590357</v>
+        <v>0.09158837720900533</v>
       </c>
       <c r="T15">
-        <v>0.09286657189590357</v>
+        <v>0.09557052072121845</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.0814976665631</v>
+        <v>44.98903266666667</v>
       </c>
       <c r="H16">
-        <v>39.0814976665631</v>
+        <v>134.967098</v>
       </c>
       <c r="I16">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="J16">
-        <v>0.3331447935554168</v>
+        <v>0.3488369270391816</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.7711752082246</v>
+        <v>26.120138</v>
       </c>
       <c r="N16">
-        <v>24.7711752082246</v>
+        <v>52.24027600000001</v>
       </c>
       <c r="O16">
-        <v>0.1309950940418236</v>
+        <v>0.1250012079717284</v>
       </c>
       <c r="P16">
-        <v>0.1309950940418236</v>
+        <v>0.08695739860366467</v>
       </c>
       <c r="Q16">
-        <v>968.0946260982555</v>
+        <v>1175.119741739842</v>
       </c>
       <c r="R16">
-        <v>968.0946260982555</v>
+        <v>7050.718450439051</v>
       </c>
       <c r="S16">
-        <v>0.04364033356133573</v>
+        <v>0.04360503726504339</v>
       </c>
       <c r="T16">
-        <v>0.04364033356133573</v>
+        <v>0.0303339517122236</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>72.651336968907</v>
+        <v>77.26852533333333</v>
       </c>
       <c r="H17">
-        <v>72.651336968907</v>
+        <v>231.805576</v>
       </c>
       <c r="I17">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="J17">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.7283142891337</v>
+        <v>33.67810466666666</v>
       </c>
       <c r="N17">
-        <v>29.7283142891337</v>
+        <v>101.034314</v>
       </c>
       <c r="O17">
-        <v>0.1572094700100047</v>
+        <v>0.1611708087274131</v>
       </c>
       <c r="P17">
-        <v>0.1572094700100047</v>
+        <v>0.1681783058563055</v>
       </c>
       <c r="Q17">
-        <v>2159.801778937425</v>
+        <v>2602.257483614984</v>
       </c>
       <c r="R17">
-        <v>2159.801778937425</v>
+        <v>23420.31735253486</v>
       </c>
       <c r="S17">
-        <v>0.09736080287840509</v>
+        <v>0.09656167836842515</v>
       </c>
       <c r="T17">
-        <v>0.09736080287840509</v>
+        <v>0.1007600545462862</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>72.651336968907</v>
+        <v>77.26852533333333</v>
       </c>
       <c r="H18">
-        <v>72.651336968907</v>
+        <v>231.805576</v>
       </c>
       <c r="I18">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="J18">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>47.5411469249623</v>
+        <v>51.86084433333334</v>
       </c>
       <c r="N18">
-        <v>47.5411469249623</v>
+        <v>155.582533</v>
       </c>
       <c r="O18">
-        <v>0.2514074104253182</v>
+        <v>0.2481865979460151</v>
       </c>
       <c r="P18">
-        <v>0.2514074104253182</v>
+        <v>0.2589774284088547</v>
       </c>
       <c r="Q18">
-        <v>3453.927885133753</v>
+        <v>4007.210964178224</v>
       </c>
       <c r="R18">
-        <v>3453.927885133753</v>
+        <v>36064.89867760401</v>
       </c>
       <c r="S18">
-        <v>0.1556981734435717</v>
+        <v>0.1486951305602065</v>
       </c>
       <c r="T18">
-        <v>0.1556981734435717</v>
+        <v>0.1551602014294804</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>72.651336968907</v>
+        <v>77.26852533333333</v>
       </c>
       <c r="H19">
-        <v>72.651336968907</v>
+        <v>231.805576</v>
       </c>
       <c r="I19">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="J19">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>34.3463579411169</v>
+        <v>42.437046</v>
       </c>
       <c r="N19">
-        <v>34.3463579411169</v>
+        <v>127.311138</v>
       </c>
       <c r="O19">
-        <v>0.1816306392680515</v>
+        <v>0.2030878249093402</v>
       </c>
       <c r="P19">
-        <v>0.1816306392680515</v>
+        <v>0.2119178193804366</v>
       </c>
       <c r="Q19">
-        <v>2495.308824434779</v>
+        <v>3279.047963922832</v>
       </c>
       <c r="R19">
-        <v>2495.308824434779</v>
+        <v>29511.43167530549</v>
       </c>
       <c r="S19">
-        <v>0.1124849849397119</v>
+        <v>0.1216752672787405</v>
       </c>
       <c r="T19">
-        <v>0.1124849849397119</v>
+        <v>0.1269655496372229</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>72.651336968907</v>
+        <v>77.26852533333333</v>
       </c>
       <c r="H20">
-        <v>72.651336968907</v>
+        <v>231.805576</v>
       </c>
       <c r="I20">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="J20">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>52.7130279649999</v>
+        <v>54.86295166666667</v>
       </c>
       <c r="N20">
-        <v>52.7130279649999</v>
+        <v>164.588855</v>
       </c>
       <c r="O20">
-        <v>0.278757386254802</v>
+        <v>0.2625535604455031</v>
       </c>
       <c r="P20">
-        <v>0.278757386254802</v>
+        <v>0.2739690477507386</v>
       </c>
       <c r="Q20">
-        <v>3829.671957336626</v>
+        <v>4239.179370717276</v>
       </c>
       <c r="R20">
-        <v>3829.671957336626</v>
+        <v>38152.61433645548</v>
       </c>
       <c r="S20">
-        <v>0.1726361836365584</v>
+        <v>0.1573027563639158</v>
       </c>
       <c r="T20">
-        <v>0.1726361836365584</v>
+        <v>0.1641420756072119</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>72.651336968907</v>
+        <v>77.26852533333333</v>
       </c>
       <c r="H21">
-        <v>72.651336968907</v>
+        <v>231.805576</v>
       </c>
       <c r="I21">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="J21">
-        <v>0.6193062216430671</v>
+        <v>0.5991263500559777</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>24.7711752082246</v>
+        <v>26.120138</v>
       </c>
       <c r="N21">
-        <v>24.7711752082246</v>
+        <v>52.24027600000001</v>
       </c>
       <c r="O21">
-        <v>0.1309950940418236</v>
+        <v>0.1250012079717284</v>
       </c>
       <c r="P21">
-        <v>0.1309950940418236</v>
+        <v>0.08695739860366467</v>
       </c>
       <c r="Q21">
-        <v>1799.658997168561</v>
+        <v>2018.264544763163</v>
       </c>
       <c r="R21">
-        <v>1799.658997168561</v>
+        <v>12109.58726857898</v>
       </c>
       <c r="S21">
-        <v>0.08112607674482003</v>
+        <v>0.07489151748468982</v>
       </c>
       <c r="T21">
-        <v>0.08112607674482003</v>
+        <v>0.05209846883577638</v>
       </c>
     </row>
   </sheetData>
